--- a/VerveStacks_BGR_grids/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_BGR_grids/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E684FC2-9857-49E6-B2A7-775EBC1D5CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58035B3C-2B10-45FF-98EB-40903CBB6809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
